--- a/spring-cloud/端口矩阵.xlsx
+++ b/spring-cloud/端口矩阵.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +618,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -628,8 +628,10 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="4">
+        <v>8603</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
@@ -658,9 +660,10 @@
       <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spring-cloud/端口矩阵.xlsx
+++ b/spring-cloud/端口矩阵.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,7 +601,9 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>8800</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>

--- a/spring-cloud/端口矩阵.xlsx
+++ b/spring-cloud/端口矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Apollo配置中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>monitorCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>configCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +522,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,7 +554,9 @@
       <c r="B2" s="4">
         <v>8070</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
@@ -556,7 +566,7 @@
       <c r="B3" s="4">
         <v>8080</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -564,7 +574,7 @@
       <c r="B4" s="4">
         <v>8090</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -638,9 +648,15 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8750</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -662,10 +678,11 @@
       <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spring-cloud/端口矩阵.xlsx
+++ b/spring-cloud/端口矩阵.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Apollo配置中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>配置中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zipkin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipkinServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +530,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,9 +668,15 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8770</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
